--- a/stage2_excels/GA/GA_kfold_RBFNN.xlsx
+++ b/stage2_excels/GA/GA_kfold_RBFNN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8167353990880637</v>
+        <v>0.8167353990880638</v>
       </c>
     </row>
     <row r="4">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7723727764101687</v>
+        <v>0.7723727764101689</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6601321431910259</v>
+        <v>0.6601321431910261</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6556259239393105</v>
+        <v>0.6556259239393112</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.653134301767119</v>
+        <v>0.6531343017671187</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6277911726754799</v>
+        <v>0.62779117267548</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6161505583323061</v>
+        <v>0.6161505583323059</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6158182161982647</v>
+        <v>0.6158182161982646</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6072157576687243</v>
+        <v>0.6072157576687244</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5953901916525934</v>
+        <v>0.5953901916525937</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5801995120379528</v>
+        <v>0.5801995120379531</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5775598268606053</v>
+        <v>0.577559826860605</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5660060095710968</v>
+        <v>0.5660060095710967</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5635208869681972</v>
+        <v>0.5635208869681969</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5633504991394599</v>
+        <v>0.5633504991394597</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5622750839878329</v>
+        <v>0.562275083987833</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5570518379652795</v>
+        <v>0.5570518379652791</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5568950938145646</v>
+        <v>0.5568950938145647</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5441578205910372</v>
+        <v>0.544157820591037</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5441510284049165</v>
+        <v>0.5441510284049166</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4624147984314401</v>
+        <v>0.4624147984314402</v>
       </c>
     </row>
     <row r="27">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4110169367582587</v>
+        <v>0.4177698881998305</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3573985181267007</v>
+        <v>0.3573985181267004</v>
       </c>
     </row>
     <row r="30">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2471985334845301</v>
+        <v>0.2471985334845298</v>
       </c>
     </row>
     <row r="32">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2038058649506923</v>
+        <v>0.2038058649506917</v>
       </c>
     </row>
     <row r="35">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.06340580188243834</v>
+        <v>0.06340580188243825</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.04017332301791128</v>
+        <v>0.04017332301791243</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.03816276991911027</v>
+        <v>0.03816276991911009</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.03681560516659241</v>
+        <v>0.0368156051665925</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.03546823442079276</v>
+        <v>0.03546823442079159</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01354246920382784</v>
+        <v>0.01354246920382789</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.01877665411910443</v>
+        <v>-0.01877665411910447</v>
       </c>
     </row>
     <row r="44">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.1112736853552295</v>
+        <v>-0.1112736853552296</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.2463145175230081</v>
+        <v>-0.246314517523008</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.3033433967987537</v>
+        <v>-0.303343396798754</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.3484502997215833</v>
+        <v>-0.3484502997215827</v>
       </c>
     </row>
     <row r="49">
@@ -928,21 +928,21 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>yuv_y_std_dev</t>
+          <t>xyz_y_std_dev</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.4479612758769553</v>
+        <v>-0.4423829864304999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>xyz_y_std_dev</t>
+          <t>yuv_y_std_dev</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.4678104868512284</v>
+        <v>-0.447961275876955</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.4976945180724829</v>
+        <v>-0.4976945180724821</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.9602331148374905</v>
+        <v>-0.9602331148374889</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1.066135459272775</v>
+        <v>-1.066135459272774</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1.099130952157174</v>
+        <v>-1.099130952157173</v>
       </c>
     </row>
     <row r="56">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1.173459403921174</v>
+        <v>-1.173459403921175</v>
       </c>
     </row>
     <row r="58">
@@ -1048,211 +1048,221 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>luv_u_std_dev</t>
+          <t>yuv_v_percentile_75</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-1.708871277780897</v>
+        <v>-1.528256531279937</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>yuv_v_std_dev</t>
+          <t>luv_u_std_dev</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-1.826791877290681</v>
+        <v>-1.708871277780895</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>hsv_h_percentile_75</t>
+          <t>yuv_v_std_dev</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-1.827193270248392</v>
+        <v>-1.826791877290682</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>luv_v_median</t>
+          <t>hsv_h_percentile_75</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-2.170755524430138</v>
+        <v>-1.827193270248392</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>luv_u_variance</t>
+          <t>luv_v_median</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-2.262200530503217</v>
+        <v>-2.170755524430138</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>yuv_u_mean</t>
+          <t>luv_u_variance</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-2.286390112949051</v>
+        <v>-2.262200530503216</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>yuv_v_variance</t>
+          <t>yuv_u_mean</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-2.350262519709024</v>
+        <v>-2.286390112949052</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>luv_u_percentile_75</t>
+          <t>yuv_v_variance</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-2.538458922568415</v>
+        <v>-2.350262519709025</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>lab_a_std_dev</t>
+          <t>luv_u_percentile_75</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-3.196893014947635</v>
+        <v>-2.538458922568415</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>yuv_v_median</t>
+          <t>lab_a_std_dev</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-3.261586697532758</v>
+        <v>-3.196893014947636</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>xyz_z_std_dev</t>
+          <t>yuv_v_median</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-3.372922070224094</v>
+        <v>-3.261586697532752</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>xyz_z_variance</t>
+          <t>xyz_z_std_dev</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-3.430902053232862</v>
+        <v>-3.372922070224093</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>yuv_u_percentile_25</t>
+          <t>xyz_z_variance</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-4.562264595024173</v>
+        <v>-3.430902053232862</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>lab_b_percentile_75</t>
+          <t>yuv_u_percentile_25</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-4.569371230095442</v>
+        <v>-4.562264595024173</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>lab_a_variance</t>
+          <t>lab_b_percentile_75</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-4.982922299711747</v>
+        <v>-4.569371230095442</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>luv_u_median</t>
+          <t>lab_a_variance</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-7.556976392074001</v>
+        <v>-4.982922299711751</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>yuv_v_mean</t>
+          <t>luv_u_median</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-22.70630020409077</v>
+        <v>-7.556976392074001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>hsv_h_percentile_25</t>
+          <t>yuv_v_mean</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-75.97662643467253</v>
+        <v>-22.70630020409077</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>luv_v_percentile_75</t>
+          <t>hsv_h_percentile_25</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-2497.654337085612</v>
+        <v>-75.97662643467253</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>lab_b_median</t>
+          <t>luv_v_percentile_75</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-3919.332972675124</v>
+        <v>-2497.654337085611</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>lab_b_median</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>-3919.332972675124</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
           <t>yuv_u_median</t>
         </is>
       </c>
-      <c r="B82" t="n">
-        <v>-5491.586151560969</v>
+      <c r="B83" t="n">
+        <v>-5491.586151560972</v>
       </c>
     </row>
   </sheetData>

--- a/stage2_excels/GA/GA_kfold_RBFNN.xlsx
+++ b/stage2_excels/GA/GA_kfold_RBFNN.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8610349536626793</v>
+        <v>0.8610349536626796</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7723727764101689</v>
+        <v>0.7723727764101687</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6601321431910261</v>
+        <v>0.6601321431910263</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6556259239393112</v>
+        <v>0.6556259239393105</v>
       </c>
     </row>
     <row r="8">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6161505583323059</v>
+        <v>0.6161505583323064</v>
       </c>
     </row>
     <row r="11">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6072157576687244</v>
+        <v>0.6072157576687245</v>
       </c>
     </row>
     <row r="13">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.577559826860605</v>
+        <v>0.5775598268606054</v>
       </c>
     </row>
     <row r="16">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5668959832066445</v>
+        <v>0.5668959832066447</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5660060095710967</v>
+        <v>0.5660060095710969</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5635208869681969</v>
+        <v>0.563520886968197</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5633504991394597</v>
+        <v>0.5633504991394598</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.562275083987833</v>
+        <v>0.5622750839878332</v>
       </c>
     </row>
     <row r="22">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.544157820591037</v>
+        <v>0.5441578205910373</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5441510284049166</v>
+        <v>0.5441510284049165</v>
       </c>
     </row>
     <row r="26">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.4317878242253054</v>
+        <v>0.4317878242253052</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4177698881998305</v>
+        <v>0.4110169367582586</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3573985181267004</v>
+        <v>0.3573985181267008</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2572216276333184</v>
+        <v>0.2572216276333185</v>
       </c>
     </row>
     <row r="31">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2426032127435586</v>
+        <v>0.2426032127435613</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2038058649506917</v>
+        <v>0.2038058649506922</v>
       </c>
     </row>
     <row r="35">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1858679311093103</v>
+        <v>0.1858679311093104</v>
       </c>
     </row>
     <row r="37">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.04017332301791243</v>
+        <v>0.04017332301791136</v>
       </c>
     </row>
     <row r="39">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.03546823442079159</v>
+        <v>0.03546823442079161</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01354246920382789</v>
+        <v>0.01354246920382778</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.01877665411910447</v>
+        <v>-0.01877665411910434</v>
       </c>
     </row>
     <row r="44">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.1112736853552296</v>
+        <v>-0.1112736853552279</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.246314517523008</v>
+        <v>-0.2463145175230083</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.303343396798754</v>
+        <v>-0.3033433967987537</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.3484502997215827</v>
+        <v>-0.3484502997215828</v>
       </c>
     </row>
     <row r="49">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.4423829864304999</v>
+        <v>-0.442382986430499</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.447961275876955</v>
+        <v>-0.4479612758769552</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.4976945180724821</v>
+        <v>-0.4976945180724829</v>
       </c>
     </row>
     <row r="53">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1.066135459272774</v>
+        <v>-1.066135459272775</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1.099130952157173</v>
+        <v>-1.099130952157174</v>
       </c>
     </row>
     <row r="56">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1.298149311252202</v>
+        <v>-1.298149311252203</v>
       </c>
     </row>
     <row r="59">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-1.708871277780895</v>
+        <v>-1.708871277780897</v>
       </c>
     </row>
     <row r="64">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-2.262200530503216</v>
+        <v>-2.262200530503217</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-2.286390112949052</v>
+        <v>-2.286390112949051</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-2.350262519709025</v>
+        <v>-2.350262519709024</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-2.538458922568415</v>
+        <v>-2.538458922568416</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-3.196893014947636</v>
+        <v>-3.196893014947635</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-3.261586697532752</v>
+        <v>-3.261586697532757</v>
       </c>
     </row>
     <row r="73">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-3.430902053232862</v>
+        <v>-3.430902053232868</v>
       </c>
     </row>
     <row r="75">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-5491.586151560972</v>
+        <v>-5491.586151560969</v>
       </c>
     </row>
   </sheetData>
